--- a/data/trans_camb/P15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-3,89; 4,02</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 7,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 9,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 8,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 5,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 6,53</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-5,18%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30,64%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82,77%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>80,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,25%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-46,44; 80,32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-28,93; 155,57</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 297,74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 275,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,76; 107,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 128,68</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 5,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 1,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 5,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 4,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 1,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 3,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,52%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 182,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,32; 99,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,48; 136,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,63; 188,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,51; 63,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 208,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,09; 151,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,5; 46,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 120,46</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 10,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,2; 1,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 1,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 11,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 2,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 6,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 10,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 1,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 2,76</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,03; 151,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,1; 19,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,0; 15,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,1; 388,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,59; 82,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 198,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,14; 187,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,17; 21,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,06; 48,11</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,91; 3,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 3,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,16; 2,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 3,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 8,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 2,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 2,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 4,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 0,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,64%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,91; 40,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,51; 42,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,86; 25,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,37; 105,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 204,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,52; 78,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,02; 42,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 68,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,1; 13,53</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,22; 1,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; -0,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,82; -0,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 8,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; -0,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; -3,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 3,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,78; -1,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,11; -2,91</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,39%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,01%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,41%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,15%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,63; 27,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,15; 3,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,69; 17,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,23; 213,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,91; 13,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -53,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,78; 53,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,01; -17,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,95; -45,37</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 9,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 8,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 6,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 9,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 11,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 6,97</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 8,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 8,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 5,69</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,54%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,03%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,5%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,56; 178,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,36; 171,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,86; 133,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 180,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 196,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,85; 133,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,94; 133,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,22; 144,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 99,75</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 6,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; -0,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 2,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 7,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 2,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 5,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 5,59</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 0,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 3,3</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,83%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,34%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,7%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; 102,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,47; -9,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,29; 51,57</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,62; 277,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,52; 78,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 188,53</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,9; 128,09</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,65; 4,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,23; 70,43</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,66; -1,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 0,35</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; -0,62</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; -0,86</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; -1,03</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; -0,18</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; -1,53</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; -0,9</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; -0,93</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,96%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,16%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,14%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,55%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,94%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,95%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,28%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,51%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,15%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,55; -21,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,79; 6,9</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,47; -10,84</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,05; -14,3</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,56; -18,71</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,36; -2,75</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,23; -27,26</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,51; -15,98</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,18; -16,55</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,41</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; -0,31</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,01</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,98</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 2,46</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,27</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,7</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,38%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 36,06</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,67; -4,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,11; 0,43</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,68; 68,54</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; 27,67</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 40,09</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 41,73</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,5; 4,44</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,53; 11,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,17</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 10,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,19</t>
+          <t>-2,51; 8,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 8,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,46</t>
+          <t>-0,19; 8,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,61; 8,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 6,53</t>
+          <t>-0,03; 6,47</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>50,19%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,06; 234,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 155,57</t>
+          <t>-31,83; 176,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,22; 262,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 275,71</t>
+          <t>-2,09; 268,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,33; 181,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 128,68</t>
+          <t>-2,12; 126,71</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,73</t>
+          <t>-2,12; 3,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 5,4</t>
+          <t>0,2; 5,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,66</t>
+          <t>-0,11; 3,67</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>76,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>44,84%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 136,17</t>
+          <t>-42,38; 133,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 208,08</t>
+          <t>2,22; 203,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 120,46</t>
+          <t>-2,72; 120,36</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 1,14</t>
+          <t>-7,41; 1,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,35</t>
+          <t>-0,28; 6,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,76</t>
+          <t>-2,76; 2,69</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,38%</t>
+          <t>-31,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,27%</t>
+          <t>66,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,0; 15,86</t>
+          <t>-61,17; 15,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 198,88</t>
+          <t>-5,53; 196,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 48,11</t>
+          <t>-30,86; 47,1</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-2,93</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 3,57</t>
+          <t>-6,72; 2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 2,2</t>
+          <t>-8,04; 2,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,88</t>
+          <t>-4,28; 2,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,95</t>
+          <t>-5,19; 1,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,72</t>
+          <t>-4,74; 1,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 0,93</t>
+          <t>-5,97; 0,06</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-21,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-30,57%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>-18,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,31%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>-20,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-27,64%</t>
+          <t>-35,5%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,91; 40,98</t>
+          <t>-50,63; 34,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,86; 25,91</t>
+          <t>-63,23; 24,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 105,98</t>
+          <t>-58,82; 53,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,52; 78,49</t>
+          <t>-71,92; 41,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 42,63</t>
+          <t>-47,94; 16,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,1; 13,53</t>
+          <t>-63,32; 0,8</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-5,88</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -0,21</t>
+          <t>-10,83; -0,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,6; -3,13</t>
+          <t>-10,64; -3,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,11; -2,91</t>
+          <t>-9,15; -3,03</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-57,35%</t>
+          <t>-58,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-95,41%</t>
+          <t>-95,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-74,15%</t>
+          <t>-74,84%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,69; 17,69</t>
+          <t>-81,8; 10,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -53,8</t>
+          <t>-100,0; -57,16</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-88,95; -45,37</t>
+          <t>-89,51; -47,44</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 6,87</t>
+          <t>-2,19; 6,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 6,97</t>
+          <t>-1,57; 6,96</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,69</t>
+          <t>-0,61; 5,68</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>34,8%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 133,31</t>
+          <t>-25,31; 132,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 133,22</t>
+          <t>-17,77; 131,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 99,75</t>
+          <t>-7,05; 98,75</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>0,82</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,87</t>
+          <t>-3,29; 2,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,2</t>
+          <t>-2,11; 4,74</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,3</t>
+          <t>-2,34; 2,92</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>56,29%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>14,9%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-36,29; 51,57</t>
+          <t>-37,79; 48,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 188,53</t>
+          <t>-38,43; 147,39</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 70,43</t>
+          <t>-34,89; 59,05</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-3,01</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -0,62</t>
+          <t>-6,93; -1,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -0,18</t>
+          <t>-4,44; -0,15</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,93</t>
+          <t>-4,96; -1,37</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-45,14%</t>
+          <t>-57,34%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-34,95%</t>
+          <t>-34,64%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>-47,56%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-67,47; -10,84</t>
+          <t>-83,25; -28,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-58,36; -2,75</t>
+          <t>-58,03; -3,02</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-57,18; -16,55</t>
+          <t>-69,43; -26,76</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,48</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,01</t>
+          <t>-3,11; -0,17</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,98</t>
+          <t>-0,64; 1,74</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,7</t>
+          <t>-1,45; 0,46</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>-22,05%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>-7,62%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 0,43</t>
+          <t>-39,54; -3,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 40,09</t>
+          <t>-11,12; 37,11</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 11,61</t>
+          <t>-21,93; 7,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P15-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,98</t>
+          <t>0,58; 10,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,02</t>
+          <t>-4,38; 3,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 8,37</t>
+          <t>-2,37; 7,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 8,67</t>
+          <t>-1,06; 8,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 9,75</t>
+          <t>-0,28; 9,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 8,0</t>
+          <t>-0,08; 8,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 8,45</t>
+          <t>1,45; 8,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 5,33</t>
+          <t>-0,97; 5,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,47</t>
+          <t>0,32; 6,5</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 234,51</t>
+          <t>6,05; 227,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,44; 80,32</t>
+          <t>-51,13; 81,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 176,26</t>
+          <t>-28,89; 141,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 262,38</t>
+          <t>-16,52; 214,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 297,74</t>
+          <t>-5,36; 276,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 268,27</t>
+          <t>-1,57; 249,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,33; 181,42</t>
+          <t>17,29; 173,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 107,44</t>
+          <t>-13,83; 113,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 126,71</t>
+          <t>2,29; 143,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 5,11</t>
+          <t>-0,8; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,6</t>
+          <t>-2,86; 2,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,82</t>
+          <t>-2,2; 3,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,8</t>
+          <t>-0,33; 5,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,66</t>
+          <t>-3,03; 1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,25</t>
+          <t>0,14; 5,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,23</t>
+          <t>0,17; 4,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,35</t>
+          <t>-2,16; 1,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,67</t>
+          <t>-0,21; 3,93</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 182,84</t>
+          <t>-20,66; 186,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,32; 99,01</t>
+          <t>-56,25; 88,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 133,81</t>
+          <t>-44,28; 126,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 188,11</t>
+          <t>-12,2; 220,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 63,45</t>
+          <t>-61,3; 57,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 203,99</t>
+          <t>2,54; 229,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 151,24</t>
+          <t>3,48; 143,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 46,56</t>
+          <t>-47,19; 49,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 120,36</t>
+          <t>-5,66; 133,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,98</t>
+          <t>1,27; 11,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 1,43</t>
+          <t>-7,29; 1,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,11</t>
+          <t>-7,8; 1,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,87</t>
+          <t>3,48; 11,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,74</t>
+          <t>-3,63; 2,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 6,26</t>
+          <t>0,08; 6,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,63</t>
+          <t>3,52; 10,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,13</t>
+          <t>-4,2; 1,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 2,69</t>
+          <t>-2,74; 2,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,03; 151,09</t>
+          <t>8,75; 154,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,1; 19,29</t>
+          <t>-59,99; 20,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,17; 15,83</t>
+          <t>-59,24; 18,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>42,1; 388,0</t>
+          <t>49,39; 387,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,59; 82,17</t>
+          <t>-60,45; 90,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 196,29</t>
+          <t>-4,03; 215,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,14; 187,05</t>
+          <t>39,99; 182,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 21,04</t>
+          <t>-47,83; 24,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 47,1</t>
+          <t>-29,99; 44,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,8</t>
+          <t>-6,94; 1,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 3,84</t>
+          <t>-5,54; 3,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 2,1</t>
+          <t>-8,36; 2,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,0</t>
+          <t>-4,4; 1,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,11</t>
+          <t>-0,12; 8,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 1,63</t>
+          <t>-4,97; 1,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 1,12</t>
+          <t>-4,63; 1,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,67</t>
+          <t>-1,22; 5,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,06</t>
+          <t>-5,82; 0,17</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 34,58</t>
+          <t>-53,14; 20,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 42,32</t>
+          <t>-41,87; 41,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 24,7</t>
+          <t>-64,33; 31,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 53,81</t>
+          <t>-60,59; 51,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 204,31</t>
+          <t>-2,73; 198,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 41,7</t>
+          <t>-69,01; 47,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 16,17</t>
+          <t>-49,56; 16,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 68,57</t>
+          <t>-13,64; 75,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,32; 0,8</t>
+          <t>-62,17; 3,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 1,37</t>
+          <t>-8,98; 1,5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -0,11</t>
+          <t>-10,18; -0,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,83; -0,44</t>
+          <t>-10,83; -0,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 8,36</t>
+          <t>-2,66; 8,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,36; -0,29</t>
+          <t>-8,55; -0,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -3,2</t>
+          <t>-9,8; -2,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,15</t>
+          <t>-3,62; 3,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -1,38</t>
+          <t>-7,95; -1,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,15; -3,03</t>
+          <t>-8,87; -2,9</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,63; 27,15</t>
+          <t>-69,22; 25,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,15; 3,7</t>
+          <t>-78,39; 0,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,8; 10,71</t>
+          <t>-83,36; 4,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 213,64</t>
+          <t>-30,97; 216,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,91; 13,8</t>
+          <t>-92,45; 15,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -57,16</t>
+          <t>-100,0; -69,72</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,78; 53,81</t>
+          <t>-37,2; 56,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-77,01; -17,46</t>
+          <t>-77,8; -17,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-89,51; -47,44</t>
+          <t>-89,42; -41,38</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,25</t>
+          <t>-1,29; 8,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 8,18</t>
+          <t>-1,39; 8,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,81</t>
+          <t>-2,0; 6,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 9,88</t>
+          <t>-0,16; 9,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,25; 11,02</t>
+          <t>0,45; 11,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 6,96</t>
+          <t>-1,6; 6,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,04</t>
+          <t>0,95; 8,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,31</t>
+          <t>1,23; 8,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,68</t>
+          <t>-0,74; 5,81</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 178,32</t>
+          <t>-14,85; 172,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 171,69</t>
+          <t>-15,68; 177,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 132,63</t>
+          <t>-22,82; 137,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 180,57</t>
+          <t>-5,98; 169,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 196,73</t>
+          <t>-0,15; 200,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 131,38</t>
+          <t>-17,55; 132,05</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,94; 133,8</t>
+          <t>8,99; 144,09</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>9,22; 144,35</t>
+          <t>12,69; 152,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 98,75</t>
+          <t>-9,05; 99,28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,12</t>
+          <t>-0,69; 5,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,0; -0,59</t>
+          <t>-5,98; -0,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,79</t>
+          <t>-3,37; 2,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,68</t>
+          <t>2,2; 7,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,28</t>
+          <t>-1,77; 2,36</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,74</t>
+          <t>-1,56; 4,99</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,59</t>
+          <t>1,65; 5,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,15</t>
+          <t>-3,35; 0,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,92</t>
+          <t>-2,06; 2,89</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 102,59</t>
+          <t>-7,19; 97,61</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,47; -9,81</t>
+          <t>-67,14; -11,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 48,49</t>
+          <t>-37,93; 52,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>42,62; 277,19</t>
+          <t>40,01; 260,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 78,69</t>
+          <t>-38,7; 87,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-38,43; 147,39</t>
+          <t>-29,7; 167,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>28,9; 128,09</t>
+          <t>22,45; 122,76</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 4,96</t>
+          <t>-49,81; 2,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 59,05</t>
+          <t>-33,64; 59,51</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -1,27</t>
+          <t>-5,67; -1,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 0,35</t>
+          <t>-4,53; 0,03</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -1,53</t>
+          <t>-6,68; -1,47</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -0,86</t>
+          <t>-5,06; -0,87</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -1,03</t>
+          <t>-4,89; -0,71</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -0,15</t>
+          <t>-4,28; -0,03</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,53</t>
+          <t>-4,87; -1,69</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,0; -0,9</t>
+          <t>-4,03; -1,0</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,96; -1,37</t>
+          <t>-5,09; -1,55</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-70,55; -21,75</t>
+          <t>-74,02; -21,63</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-55,79; 6,9</t>
+          <t>-56,22; 2,88</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-83,25; -28,32</t>
+          <t>-84,33; -27,58</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-70,05; -14,3</t>
+          <t>-67,89; -13,76</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-66,56; -18,71</t>
+          <t>-66,79; -11,29</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-58,03; -3,02</t>
+          <t>-58,7; -1,56</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-64,23; -27,26</t>
+          <t>-66,35; -31,17</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-55,51; -15,98</t>
+          <t>-55,56; -15,04</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-69,43; -26,76</t>
+          <t>-68,99; -27,27</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,41</t>
+          <t>-0,34; 2,41</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,31</t>
+          <t>-2,75; -0,32</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,17</t>
+          <t>-3,27; -0,23</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,23</t>
+          <t>0,75; 3,24</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,26</t>
+          <t>-0,88; 1,36</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,74</t>
+          <t>-0,63; 1,92</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,46</t>
+          <t>0,53; 2,4</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,27</t>
+          <t>-1,47; 0,24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,46</t>
+          <t>-1,51; 0,45</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 36,06</t>
+          <t>-4,29; 36,24</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-34,67; -4,88</t>
+          <t>-34,96; -5,06</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-39,54; -3,82</t>
+          <t>-41,03; -3,14</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>14,68; 68,54</t>
+          <t>12,14; 67,82</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 27,67</t>
+          <t>-16,38; 29,61</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 37,11</t>
+          <t>-11,54; 40,77</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>8,68; 41,73</t>
+          <t>7,49; 41,1</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 4,44</t>
+          <t>-21,95; 4,09</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 7,73</t>
+          <t>-23,06; 7,79</t>
         </is>
       </c>
     </row>
